--- a/Archway to Collections Mapping.xlsx
+++ b/Archway to Collections Mapping.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://azurediagovt-my.sharepoint.com/personal/jan_hutar_dia_govt_nz/Documents/Archway_AIMS_mapping_importsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{993C116D-D0B4-49C5-96A2-F447869A038A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{416F620A-E234-4FC9-A0BB-BFD0C0849F93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="resources" sheetId="2" r:id="rId1"/>
     <sheet name="mapping" sheetId="3" r:id="rId2"/>
     <sheet name="itemRelationships" sheetId="6" r:id="rId3"/>
     <sheet name="dummySheet" sheetId="5" r:id="rId4"/>
+    <sheet name="mandatoryFields" sheetId="7" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_GoBack" localSheetId="2">itemRelationships!$B$2</definedName>
@@ -1253,7 +1254,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="198">
   <si>
     <t>import form for AIMS available here</t>
   </si>
@@ -1978,12 +1979,21 @@
 Ministry of Education
 transfer - W6050</t>
   </si>
+  <si>
+    <t>mandatoryFields</t>
+  </si>
+  <si>
+    <t>possibly ok to delete entirely from the script</t>
+  </si>
+  <si>
+    <t> </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2178,6 +2188,20 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="41">
@@ -2569,7 +2593,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2640,6 +2664,8 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="4"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2998,7 +3024,7 @@
   <dimension ref="A2:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -4005,8 +4031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{848C475F-5AAB-4C24-A698-394F435C7BFA}">
   <dimension ref="A1:AR1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="Y2" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="V2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="V2" sqref="V2"/>
       <selection activeCell="T1" sqref="T1"/>
     </sheetView>
@@ -7355,57 +7381,240 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{670D0915-71A1-4018-8EA2-DFDF8C3CE99C}">
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="28.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="27" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="27" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="27" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="27"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="27" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="27" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="27" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="26" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="26" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="27" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="27" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="B21" s="27" t="s">
+        <v>197</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <C3TopicNote xmlns="01be4277-2979-4a68-876d-b92b25fceece">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Arrangement and description</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">96109ba4-b7db-4f97-9605-82e55a7a5ac5</TermId>
+        </TermInfo>
+      </Terms>
+    </C3TopicNote>
+    <TaxKeywordTaxHTField xmlns="13e0d534-2a4a-4dcb-bb1d-d2e050d8070d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+    <DIANotes xmlns="13e0d534-2a4a-4dcb-bb1d-d2e050d8070d" xsi:nil="true"/>
+    <l9428c91c86e46558bbc3e543307bdf6 xmlns="13e0d534-2a4a-4dcb-bb1d-d2e050d8070d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">UNCLASSIFIED</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">875d92a8-67e2-4a32-9472-8fe99549e1eb</TermId>
+        </TermInfo>
+      </Terms>
+    </l9428c91c86e46558bbc3e543307bdf6>
+    <TaxCatchAll xmlns="13e0d534-2a4a-4dcb-bb1d-d2e050d8070d">
+      <Value>16</Value>
+      <Value>14</Value>
+      <Value>435</Value>
+      <Value>8</Value>
+      <Value>4</Value>
+      <Value>1</Value>
+    </TaxCatchAll>
+    <jfc8e5c859724e1fbf9c506dbf10638a xmlns="13e0d534-2a4a-4dcb-bb1d-d2e050d8070d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Archives NZ</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">53233594-a2c5-4659-b05b-acd616f4dae8</TermId>
+        </TermInfo>
+      </Terms>
+    </jfc8e5c859724e1fbf9c506dbf10638a>
+    <_dlc_DocId xmlns="13e0d534-2a4a-4dcb-bb1d-d2e050d8070d">ZV2C55T3EKPV-290140614-1068</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="13e0d534-2a4a-4dcb-bb1d-d2e050d8070d">
+      <Url>https://dia.cohesion.net.nz/Sites/IAC/IPPG/_layouts/15/DocIdRedir.aspx?ID=ZV2C55T3EKPV-290140614-1068</Url>
+      <Description>ZV2C55T3EKPV-290140614-1068</Description>
+    </_dlc_DocIdUrl>
+    <pa998af66a7741d997e719fa81901a1b xmlns="13e0d534-2a4a-4dcb-bb1d-d2e050d8070d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </pa998af66a7741d997e719fa81901a1b>
+    <e3db380bad994770b3d5e0a304acb60c xmlns="13e0d534-2a4a-4dcb-bb1d-d2e050d8070d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Current</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">7700dd0a-8d7a-4f76-a68b-dd1addab9278</TermId>
+        </TermInfo>
+      </Terms>
+    </e3db380bad994770b3d5e0a304acb60c>
+    <b7c9f7b35a4544889fc3e69a0a78787e xmlns="13e0d534-2a4a-4dcb-bb1d-d2e050d8070d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Template</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">904472fb-5946-4bf0-bf20-360d4d563c19</TermId>
+        </TermInfo>
+      </Terms>
+    </b7c9f7b35a4544889fc3e69a0a78787e>
+    <h4c11eec79fa4a6bb87f69c01ad07370 xmlns="13e0d534-2a4a-4dcb-bb1d-d2e050d8070d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </h4c11eec79fa4a6bb87f69c01ad07370>
+    <C3ReviewDate xmlns="90d0c6f1-83ed-48a5-979f-26984bc7129c">2030-12-30T11:00:00+00:00</C3ReviewDate>
+    <DIATemplateName xmlns="13e0d534-2a4a-4dcb-bb1d-d2e050d8070d">AIMS-Collections item import template</DIATemplateName>
+    <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
+    <SharedWithUsers xmlns="48378efb-0ce9-4126-8db0-8454c4fef795">
+      <UserInfo>
+        <DisplayName>Vivienne Cuff</DisplayName>
+        <AccountId>101</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Administration Document" ma:contentTypeID="0x0101005496552013C0BA46BE88192D5C6EB20B00351512A5ABB74CC687DC2977C156D0BF00C52CC529F144C14DA741497ADD25BF2C" ma:contentTypeVersion="23" ma:contentTypeDescription="Administration Document" ma:contentTypeScope="" ma:versionID="c421c64863fd7517fd3d6862742ef93f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="01be4277-2979-4a68-876d-b92b25fceece" xmlns:ns4="13e0d534-2a4a-4dcb-bb1d-d2e050d8070d" xmlns:ns5="90d0c6f1-83ed-48a5-979f-26984bc7129c" xmlns:ns6="http://schemas.microsoft.com/sharepoint/v4" xmlns:ns7="48378efb-0ce9-4126-8db0-8454c4fef795" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a2bf13048e989de7c8b571a909d7e510" ns3:_="" ns4:_="" ns5:_="" ns6:_="" ns7:_="">
     <xsd:import namespace="01be4277-2979-4a68-876d-b92b25fceece"/>
@@ -7704,107 +7913,68 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <C3TopicNote xmlns="01be4277-2979-4a68-876d-b92b25fceece">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Arrangement and description</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">96109ba4-b7db-4f97-9605-82e55a7a5ac5</TermId>
-        </TermInfo>
-      </Terms>
-    </C3TopicNote>
-    <TaxKeywordTaxHTField xmlns="13e0d534-2a4a-4dcb-bb1d-d2e050d8070d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-    <DIANotes xmlns="13e0d534-2a4a-4dcb-bb1d-d2e050d8070d" xsi:nil="true"/>
-    <l9428c91c86e46558bbc3e543307bdf6 xmlns="13e0d534-2a4a-4dcb-bb1d-d2e050d8070d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">UNCLASSIFIED</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">875d92a8-67e2-4a32-9472-8fe99549e1eb</TermId>
-        </TermInfo>
-      </Terms>
-    </l9428c91c86e46558bbc3e543307bdf6>
-    <TaxCatchAll xmlns="13e0d534-2a4a-4dcb-bb1d-d2e050d8070d">
-      <Value>16</Value>
-      <Value>14</Value>
-      <Value>435</Value>
-      <Value>8</Value>
-      <Value>4</Value>
-      <Value>1</Value>
-    </TaxCatchAll>
-    <jfc8e5c859724e1fbf9c506dbf10638a xmlns="13e0d534-2a4a-4dcb-bb1d-d2e050d8070d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Archives NZ</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">53233594-a2c5-4659-b05b-acd616f4dae8</TermId>
-        </TermInfo>
-      </Terms>
-    </jfc8e5c859724e1fbf9c506dbf10638a>
-    <_dlc_DocId xmlns="13e0d534-2a4a-4dcb-bb1d-d2e050d8070d">ZV2C55T3EKPV-290140614-1068</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="13e0d534-2a4a-4dcb-bb1d-d2e050d8070d">
-      <Url>https://dia.cohesion.net.nz/Sites/IAC/IPPG/_layouts/15/DocIdRedir.aspx?ID=ZV2C55T3EKPV-290140614-1068</Url>
-      <Description>ZV2C55T3EKPV-290140614-1068</Description>
-    </_dlc_DocIdUrl>
-    <pa998af66a7741d997e719fa81901a1b xmlns="13e0d534-2a4a-4dcb-bb1d-d2e050d8070d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </pa998af66a7741d997e719fa81901a1b>
-    <e3db380bad994770b3d5e0a304acb60c xmlns="13e0d534-2a4a-4dcb-bb1d-d2e050d8070d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Current</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">7700dd0a-8d7a-4f76-a68b-dd1addab9278</TermId>
-        </TermInfo>
-      </Terms>
-    </e3db380bad994770b3d5e0a304acb60c>
-    <b7c9f7b35a4544889fc3e69a0a78787e xmlns="13e0d534-2a4a-4dcb-bb1d-d2e050d8070d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Template</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">904472fb-5946-4bf0-bf20-360d4d563c19</TermId>
-        </TermInfo>
-      </Terms>
-    </b7c9f7b35a4544889fc3e69a0a78787e>
-    <h4c11eec79fa4a6bb87f69c01ad07370 xmlns="13e0d534-2a4a-4dcb-bb1d-d2e050d8070d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </h4c11eec79fa4a6bb87f69c01ad07370>
-    <C3ReviewDate xmlns="90d0c6f1-83ed-48a5-979f-26984bc7129c">2030-12-30T11:00:00+00:00</C3ReviewDate>
-    <DIATemplateName xmlns="13e0d534-2a4a-4dcb-bb1d-d2e050d8070d">AIMS-Collections item import template</DIATemplateName>
-    <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
-    <SharedWithUsers xmlns="48378efb-0ce9-4126-8db0-8454c4fef795">
-      <UserInfo>
-        <DisplayName>Vivienne Cuff</DisplayName>
-        <AccountId>101</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{965F45CE-F73F-4DE8-B4AA-F8F5BF49864E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D81DC85A-8E75-4CA2-A7E9-F0EBAF1051BE}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B07749C-34D7-4B4A-B1CC-8FCF433CCC5F}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EAAE5B66-40CA-49E8-95E0-20DC2587EC97}"/>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B07749C-34D7-4B4A-B1CC-8FCF433CCC5F}"/>
-</file>
-
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D81DC85A-8E75-4CA2-A7E9-F0EBAF1051BE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{965F45CE-F73F-4DE8-B4AA-F8F5BF49864E}"/>
 </file>